--- a/Mereni/esp32/Výsledky měření - ESP32.xlsx
+++ b/Mereni/esp32/Výsledky měření - ESP32.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\MP_NETIO_BUTTON\mereni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\MP_NETIO_BUTTON\Mereni\esp32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FBAFAE-9287-4239-B74F-AC22A31C494F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE62FA0-6A36-498C-81CA-F1E89BB6BDF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C4E342-A7A8-4CD3-AA61-06B44577753C}"/>
+    <workbookView xWindow="2520" yWindow="-270" windowWidth="17430" windowHeight="13485" firstSheet="3" activeTab="3" xr2:uid="{11C4E342-A7A8-4CD3-AA61-06B44577753C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ustálené stavy" sheetId="7" r:id="rId1"/>
@@ -532,29 +532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,9 +556,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -742,7 +742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1040,14 +1040,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7A0760-D44F-4918-B368-D720CC406B21}">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1085,22 +1088,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="26"/>
+      <c r="H5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1142,7 +1145,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D7">
-        <v>-6.77</v>
+        <v>-8.9700000000000006</v>
       </c>
       <c r="E7">
         <v>2.5329299999999998E-4</v>
@@ -1174,7 +1177,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D8">
-        <v>-6.7675000000000001</v>
+        <v>-8.9674999999999994</v>
       </c>
       <c r="E8">
         <v>2.5329299999999998E-4</v>
@@ -1211,7 +1214,7 @@
         <v>5.7245699999999997E-2</v>
       </c>
       <c r="D9">
-        <v>-6.7649999999999997</v>
+        <v>-8.9649999999999999</v>
       </c>
       <c r="E9">
         <v>2.5329299999999998E-4</v>
@@ -1225,19 +1228,19 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D10">
-        <v>-6.7625000000000002</v>
+        <v>-8.9625000000000004</v>
       </c>
       <c r="E10">
         <v>2.5329299999999998E-4</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1247,7 +1250,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D11">
-        <v>-6.76</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="E11">
         <v>2.5329299999999998E-4</v>
@@ -1279,7 +1282,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D12">
-        <v>-6.7575000000000003</v>
+        <v>-8.9574999999999996</v>
       </c>
       <c r="E12">
         <v>2.5329299999999998E-4</v>
@@ -1311,7 +1314,7 @@
         <v>5.68643E-2</v>
       </c>
       <c r="D13">
-        <v>-6.7549999999999999</v>
+        <v>-8.9550000000000001</v>
       </c>
       <c r="E13">
         <v>2.5329299999999998E-4</v>
@@ -1322,22 +1325,22 @@
       </c>
       <c r="I13" s="10">
         <f>SUM(E7:E807)</f>
-        <v>0.10160227900000056</v>
+        <v>0.10157049300000055</v>
       </c>
       <c r="J13" s="10">
         <f>D807-D7</f>
-        <v>6.77</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K13" s="10">
         <f>I13/D3</f>
-        <v>2.5400569750000141E-4</v>
+        <v>2.5392623250000137E-4</v>
       </c>
       <c r="L13" s="5">
         <v>3.3</v>
       </c>
       <c r="M13" s="11">
         <f>L13*K13</f>
-        <v>8.3821880175000455E-4</v>
+        <v>8.3795656725000451E-4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1348,7 +1351,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D14">
-        <v>-6.7525000000000004</v>
+        <v>-8.9525000000000006</v>
       </c>
       <c r="E14">
         <v>2.5329299999999998E-4</v>
@@ -1362,7 +1365,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D15">
-        <v>-6.75</v>
+        <v>-8.9499999999999993</v>
       </c>
       <c r="E15">
         <v>2.5329299999999998E-4</v>
@@ -1376,7 +1379,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D16">
-        <v>-6.7474999999999996</v>
+        <v>-8.9474999999999998</v>
       </c>
       <c r="E16">
         <v>2.5329299999999998E-4</v>
@@ -1390,7 +1393,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D17">
-        <v>-6.7450000000000001</v>
+        <v>-8.9450000000000003</v>
       </c>
       <c r="E17">
         <v>2.5329299999999998E-4</v>
@@ -1404,7 +1407,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D18">
-        <v>-6.7424999999999997</v>
+        <v>-8.9425000000000008</v>
       </c>
       <c r="E18">
         <v>2.5329299999999998E-4</v>
@@ -1418,7 +1421,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D19">
-        <v>-6.74</v>
+        <v>-8.94</v>
       </c>
       <c r="E19">
         <v>2.5329299999999998E-4</v>
@@ -1432,7 +1435,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D20">
-        <v>-6.7374999999999998</v>
+        <v>-8.9375</v>
       </c>
       <c r="E20">
         <v>2.5329299999999998E-4</v>
@@ -1446,7 +1449,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D21">
-        <v>-6.7350000000000003</v>
+        <v>-8.9350000000000005</v>
       </c>
       <c r="E21">
         <v>2.5329299999999998E-4</v>
@@ -1460,7 +1463,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D22">
-        <v>-6.7324999999999999</v>
+        <v>-8.9324999999999992</v>
       </c>
       <c r="E22">
         <v>2.5329299999999998E-4</v>
@@ -1474,7 +1477,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D23">
-        <v>-6.73</v>
+        <v>-8.93</v>
       </c>
       <c r="E23">
         <v>2.5329299999999998E-4</v>
@@ -1488,7 +1491,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D24">
-        <v>-6.7275</v>
+        <v>-8.9275000000000002</v>
       </c>
       <c r="E24">
         <v>2.5329299999999998E-4</v>
@@ -1502,7 +1505,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D25">
-        <v>-6.7249999999999996</v>
+        <v>-8.9250000000000007</v>
       </c>
       <c r="E25">
         <v>2.5329299999999998E-4</v>
@@ -1516,7 +1519,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D26">
-        <v>-6.7225000000000001</v>
+        <v>-8.9224999999999994</v>
       </c>
       <c r="E26">
         <v>2.5329299999999998E-4</v>
@@ -1530,7 +1533,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D27">
-        <v>-6.72</v>
+        <v>-8.92</v>
       </c>
       <c r="E27">
         <v>2.5329299999999998E-4</v>
@@ -1544,7 +1547,7 @@
         <v>5.6768899999999997E-2</v>
       </c>
       <c r="D28">
-        <v>-6.7175000000000002</v>
+        <v>-8.9175000000000004</v>
       </c>
       <c r="E28">
         <v>2.5329299999999998E-4</v>
@@ -1558,7 +1561,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D29">
-        <v>-6.7149999999999999</v>
+        <v>-8.9149999999999991</v>
       </c>
       <c r="E29">
         <v>2.5329299999999998E-4</v>
@@ -1572,7 +1575,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D30">
-        <v>-6.7125000000000004</v>
+        <v>-8.9124999999999996</v>
       </c>
       <c r="E30">
         <v>2.5329299999999998E-4</v>
@@ -1586,7 +1589,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D31">
-        <v>-6.71</v>
+        <v>-8.91</v>
       </c>
       <c r="E31">
         <v>2.5329299999999998E-4</v>
@@ -1600,7 +1603,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D32">
-        <v>-6.7074999999999996</v>
+        <v>-8.9075000000000006</v>
       </c>
       <c r="E32">
         <v>2.5329299999999998E-4</v>
@@ -1614,7 +1617,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D33">
-        <v>-6.7050000000000001</v>
+        <v>-8.9049999999999994</v>
       </c>
       <c r="E33">
         <v>2.5329299999999998E-4</v>
@@ -1628,7 +1631,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D34">
-        <v>-6.7024999999999997</v>
+        <v>-8.9024999999999999</v>
       </c>
       <c r="E34">
         <v>2.5329299999999998E-4</v>
@@ -1642,7 +1645,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D35">
-        <v>-6.7</v>
+        <v>-8.9</v>
       </c>
       <c r="E35">
         <v>2.5329299999999998E-4</v>
@@ -1656,7 +1659,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D36">
-        <v>-6.6974999999999998</v>
+        <v>-8.8975000000000009</v>
       </c>
       <c r="E36">
         <v>2.5329299999999998E-4</v>
@@ -1670,7 +1673,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D37">
-        <v>-6.6950000000000003</v>
+        <v>-8.8949999999999996</v>
       </c>
       <c r="E37">
         <v>2.5329299999999998E-4</v>
@@ -1684,7 +1687,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D38">
-        <v>-6.6924999999999999</v>
+        <v>-8.8925000000000001</v>
       </c>
       <c r="E38">
         <v>2.5329299999999998E-4</v>
@@ -1698,7 +1701,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D39">
-        <v>-6.69</v>
+        <v>-8.89</v>
       </c>
       <c r="E39">
         <v>2.5329299999999998E-4</v>
@@ -1712,7 +1715,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D40">
-        <v>-6.6875</v>
+        <v>-8.8874999999999993</v>
       </c>
       <c r="E40">
         <v>2.5329299999999998E-4</v>
@@ -1726,7 +1729,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D41">
-        <v>-6.6849999999999996</v>
+        <v>-8.8849999999999998</v>
       </c>
       <c r="E41">
         <v>2.5329299999999998E-4</v>
@@ -1740,7 +1743,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D42">
-        <v>-6.6825000000000001</v>
+        <v>-8.8825000000000003</v>
       </c>
       <c r="E42">
         <v>2.5329299999999998E-4</v>
@@ -1754,7 +1757,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D43">
-        <v>-6.68</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="E43">
         <v>2.5329299999999998E-4</v>
@@ -1768,7 +1771,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D44">
-        <v>-6.6775000000000002</v>
+        <v>-8.8774999999999995</v>
       </c>
       <c r="E44">
         <v>2.5329299999999998E-4</v>
@@ -1782,7 +1785,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D45">
-        <v>-6.6749999999999998</v>
+        <v>-8.875</v>
       </c>
       <c r="E45">
         <v>2.5329299999999998E-4</v>
@@ -1796,7 +1799,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D46">
-        <v>-6.6725000000000003</v>
+        <v>-8.8725000000000005</v>
       </c>
       <c r="E46">
         <v>2.5329299999999998E-4</v>
@@ -1810,7 +1813,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D47">
-        <v>-6.67</v>
+        <v>-8.8699999999999992</v>
       </c>
       <c r="E47">
         <v>2.5329299999999998E-4</v>
@@ -1824,7 +1827,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D48">
-        <v>-6.6675000000000004</v>
+        <v>-8.8674999999999997</v>
       </c>
       <c r="E48">
         <v>2.5329299999999998E-4</v>
@@ -1838,7 +1841,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D49">
-        <v>-6.665</v>
+        <v>-8.8650000000000002</v>
       </c>
       <c r="E49">
         <v>2.5329299999999998E-4</v>
@@ -1852,7 +1855,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D50">
-        <v>-6.6624999999999996</v>
+        <v>-8.8625000000000007</v>
       </c>
       <c r="E50">
         <v>2.5329299999999998E-4</v>
@@ -1866,7 +1869,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D51">
-        <v>-6.66</v>
+        <v>-8.86</v>
       </c>
       <c r="E51">
         <v>2.5329299999999998E-4</v>
@@ -1880,7 +1883,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D52">
-        <v>-6.6574999999999998</v>
+        <v>-8.8574999999999999</v>
       </c>
       <c r="E52">
         <v>2.5329299999999998E-4</v>
@@ -1894,7 +1897,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D53">
-        <v>-6.6550000000000002</v>
+        <v>-8.8550000000000004</v>
       </c>
       <c r="E53">
         <v>2.5329299999999998E-4</v>
@@ -1908,7 +1911,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D54">
-        <v>-6.6524999999999999</v>
+        <v>-8.8524999999999991</v>
       </c>
       <c r="E54">
         <v>2.5329299999999998E-4</v>
@@ -1922,7 +1925,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D55">
-        <v>-6.65</v>
+        <v>-8.85</v>
       </c>
       <c r="E55">
         <v>2.5329299999999998E-4</v>
@@ -1936,7 +1939,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D56">
-        <v>-6.6475</v>
+        <v>-8.8475000000000001</v>
       </c>
       <c r="E56">
         <v>2.5329299999999998E-4</v>
@@ -1950,7 +1953,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D57">
-        <v>-6.6449999999999996</v>
+        <v>-8.8450000000000006</v>
       </c>
       <c r="E57">
         <v>2.5329299999999998E-4</v>
@@ -1964,7 +1967,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D58">
-        <v>-6.6425000000000001</v>
+        <v>-8.8424999999999994</v>
       </c>
       <c r="E58">
         <v>2.5329299999999998E-4</v>
@@ -1978,7 +1981,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D59">
-        <v>-6.64</v>
+        <v>-8.84</v>
       </c>
       <c r="E59">
         <v>2.5329299999999998E-4</v>
@@ -1992,7 +1995,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D60">
-        <v>-6.6375000000000002</v>
+        <v>-8.8375000000000004</v>
       </c>
       <c r="E60">
         <v>2.5329299999999998E-4</v>
@@ -2006,7 +2009,7 @@
         <v>5.68643E-2</v>
       </c>
       <c r="D61">
-        <v>-6.6349999999999998</v>
+        <v>-8.8350000000000009</v>
       </c>
       <c r="E61">
         <v>2.5329299999999998E-4</v>
@@ -2020,7 +2023,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D62">
-        <v>-6.6325000000000003</v>
+        <v>-8.8324999999999996</v>
       </c>
       <c r="E62">
         <v>2.5329299999999998E-4</v>
@@ -2034,7 +2037,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D63">
-        <v>-6.63</v>
+        <v>-8.83</v>
       </c>
       <c r="E63">
         <v>2.5329299999999998E-4</v>
@@ -2048,7 +2051,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D64">
-        <v>-6.6275000000000004</v>
+        <v>-8.8275000000000006</v>
       </c>
       <c r="E64">
         <v>2.5329299999999998E-4</v>
@@ -2062,7 +2065,7 @@
         <v>5.7213899999999998E-2</v>
       </c>
       <c r="D65">
-        <v>-6.625</v>
+        <v>-8.8249999999999993</v>
       </c>
       <c r="E65">
         <v>2.5329299999999998E-4</v>
@@ -2076,7 +2079,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D66">
-        <v>-6.6224999999999996</v>
+        <v>-8.8224999999999998</v>
       </c>
       <c r="E66">
         <v>2.5329299999999998E-4</v>
@@ -2090,7 +2093,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D67">
-        <v>-6.62</v>
+        <v>-8.82</v>
       </c>
       <c r="E67">
         <v>2.5329299999999998E-4</v>
@@ -2104,7 +2107,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D68">
-        <v>-6.6174999999999997</v>
+        <v>-8.8175000000000008</v>
       </c>
       <c r="E68">
         <v>2.5329299999999998E-4</v>
@@ -2118,7 +2121,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D69">
-        <v>-6.6150000000000002</v>
+        <v>-8.8149999999999995</v>
       </c>
       <c r="E69">
         <v>2.5329299999999998E-4</v>
@@ -2132,7 +2135,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D70">
-        <v>-6.6124999999999998</v>
+        <v>-8.8125</v>
       </c>
       <c r="E70">
         <v>2.5329299999999998E-4</v>
@@ -2146,7 +2149,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D71">
-        <v>-6.61</v>
+        <v>-8.81</v>
       </c>
       <c r="E71">
         <v>2.5329299999999998E-4</v>
@@ -2160,7 +2163,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D72">
-        <v>-6.6074999999999999</v>
+        <v>-8.8074999999999992</v>
       </c>
       <c r="E72">
         <v>2.5329299999999998E-4</v>
@@ -2174,7 +2177,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D73">
-        <v>-6.6050000000000004</v>
+        <v>-8.8049999999999997</v>
       </c>
       <c r="E73">
         <v>2.5329299999999998E-4</v>
@@ -2188,7 +2191,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D74">
-        <v>-6.6025</v>
+        <v>-8.8025000000000002</v>
       </c>
       <c r="E74">
         <v>2.5329299999999998E-4</v>
@@ -2202,7 +2205,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D75">
-        <v>-6.6</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="E75">
         <v>2.5329299999999998E-4</v>
@@ -2216,7 +2219,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D76">
-        <v>-6.5975000000000001</v>
+        <v>-8.7974999999999994</v>
       </c>
       <c r="E76">
         <v>2.5329299999999998E-4</v>
@@ -2230,7 +2233,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D77">
-        <v>-6.5949999999999998</v>
+        <v>-8.7949999999999999</v>
       </c>
       <c r="E77">
         <v>2.5329299999999998E-4</v>
@@ -2244,7 +2247,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D78">
-        <v>-6.5925000000000002</v>
+        <v>-8.7925000000000004</v>
       </c>
       <c r="E78">
         <v>2.5329299999999998E-4</v>
@@ -2258,7 +2261,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D79">
-        <v>-6.59</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="E79">
         <v>2.5329299999999998E-4</v>
@@ -2272,7 +2275,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D80">
-        <v>-6.5875000000000004</v>
+        <v>-8.7874999999999996</v>
       </c>
       <c r="E80">
         <v>2.5329299999999998E-4</v>
@@ -2286,7 +2289,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D81">
-        <v>-6.585</v>
+        <v>-8.7850000000000001</v>
       </c>
       <c r="E81">
         <v>2.5329299999999998E-4</v>
@@ -2300,7 +2303,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D82">
-        <v>-6.5824999999999996</v>
+        <v>-8.7825000000000006</v>
       </c>
       <c r="E82">
         <v>2.5329299999999998E-4</v>
@@ -2314,7 +2317,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D83">
-        <v>-6.58</v>
+        <v>-8.7799999999999994</v>
       </c>
       <c r="E83">
         <v>2.5329299999999998E-4</v>
@@ -2328,7 +2331,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D84">
-        <v>-6.5774999999999997</v>
+        <v>-8.7774999999999999</v>
       </c>
       <c r="E84">
         <v>2.5329299999999998E-4</v>
@@ -2342,7 +2345,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D85">
-        <v>-6.5750000000000002</v>
+        <v>-8.7750000000000004</v>
       </c>
       <c r="E85">
         <v>2.5329299999999998E-4</v>
@@ -2356,7 +2359,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D86">
-        <v>-6.5724999999999998</v>
+        <v>-8.7725000000000009</v>
       </c>
       <c r="E86">
         <v>2.5329299999999998E-4</v>
@@ -2370,7 +2373,7 @@
         <v>5.7213899999999998E-2</v>
       </c>
       <c r="D87">
-        <v>-6.57</v>
+        <v>-8.77</v>
       </c>
       <c r="E87">
         <v>2.5329299999999998E-4</v>
@@ -2384,7 +2387,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D88">
-        <v>-6.5674999999999999</v>
+        <v>-8.7675000000000001</v>
       </c>
       <c r="E88">
         <v>2.5329299999999998E-4</v>
@@ -2398,7 +2401,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D89">
-        <v>-6.5650000000000004</v>
+        <v>-8.7650000000000006</v>
       </c>
       <c r="E89">
         <v>2.5329299999999998E-4</v>
@@ -2412,7 +2415,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D90">
-        <v>-6.5625</v>
+        <v>-8.7624999999999993</v>
       </c>
       <c r="E90">
         <v>2.5329299999999998E-4</v>
@@ -2426,7 +2429,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D91">
-        <v>-6.56</v>
+        <v>-8.76</v>
       </c>
       <c r="E91">
         <v>2.5329299999999998E-4</v>
@@ -2440,7 +2443,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D92">
-        <v>-6.5575000000000001</v>
+        <v>-8.7575000000000003</v>
       </c>
       <c r="E92">
         <v>2.5329299999999998E-4</v>
@@ -2454,7 +2457,7 @@
         <v>5.6927899999999997E-2</v>
       </c>
       <c r="D93">
-        <v>-6.5549999999999997</v>
+        <v>-8.7550000000000008</v>
       </c>
       <c r="E93">
         <v>2.5329299999999998E-4</v>
@@ -2468,7 +2471,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D94">
-        <v>-6.5525000000000002</v>
+        <v>-8.7524999999999995</v>
       </c>
       <c r="E94">
         <v>2.5329299999999998E-4</v>
@@ -2482,7 +2485,7 @@
         <v>5.7213899999999998E-2</v>
       </c>
       <c r="D95">
-        <v>-6.55</v>
+        <v>-8.75</v>
       </c>
       <c r="E95">
         <v>2.5329299999999998E-4</v>
@@ -2496,7 +2499,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D96">
-        <v>-6.5475000000000003</v>
+        <v>-8.7475000000000005</v>
       </c>
       <c r="E96">
         <v>2.5329299999999998E-4</v>
@@ -2510,7 +2513,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D97">
-        <v>-6.5449999999999999</v>
+        <v>-8.7449999999999992</v>
       </c>
       <c r="E97">
         <v>2.5329299999999998E-4</v>
@@ -2524,7 +2527,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D98">
-        <v>-6.5425000000000004</v>
+        <v>-8.7424999999999997</v>
       </c>
       <c r="E98">
         <v>2.5329299999999998E-4</v>
@@ -2538,7 +2541,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D99">
-        <v>-6.54</v>
+        <v>-8.74</v>
       </c>
       <c r="E99">
         <v>2.5329299999999998E-4</v>
@@ -2552,7 +2555,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D100">
-        <v>-6.5374999999999996</v>
+        <v>-8.7375000000000007</v>
       </c>
       <c r="E100">
         <v>2.5329299999999998E-4</v>
@@ -2566,7 +2569,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D101">
-        <v>-6.5350000000000001</v>
+        <v>-8.7349999999999994</v>
       </c>
       <c r="E101">
         <v>2.5329299999999998E-4</v>
@@ -2580,7 +2583,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D102">
-        <v>-6.5324999999999998</v>
+        <v>-8.7324999999999999</v>
       </c>
       <c r="E102">
         <v>2.5329299999999998E-4</v>
@@ -2594,7 +2597,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D103">
-        <v>-6.53</v>
+        <v>-8.73</v>
       </c>
       <c r="E103">
         <v>2.5329299999999998E-4</v>
@@ -2608,7 +2611,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D104">
-        <v>-6.5274999999999999</v>
+        <v>-8.7274999999999991</v>
       </c>
       <c r="E104">
         <v>2.5329299999999998E-4</v>
@@ -2622,7 +2625,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D105">
-        <v>-6.5250000000000004</v>
+        <v>-8.7249999999999996</v>
       </c>
       <c r="E105">
         <v>2.5329299999999998E-4</v>
@@ -2636,7 +2639,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D106">
-        <v>-6.5225</v>
+        <v>-8.7225000000000001</v>
       </c>
       <c r="E106">
         <v>2.5329299999999998E-4</v>
@@ -2650,7 +2653,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D107">
-        <v>-6.52</v>
+        <v>-8.7200000000000006</v>
       </c>
       <c r="E107">
         <v>2.5329299999999998E-4</v>
@@ -2664,7 +2667,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D108">
-        <v>-6.5175000000000001</v>
+        <v>-8.7174999999999994</v>
       </c>
       <c r="E108">
         <v>2.5329299999999998E-4</v>
@@ -2678,7 +2681,7 @@
         <v>5.6927899999999997E-2</v>
       </c>
       <c r="D109">
-        <v>-6.5149999999999997</v>
+        <v>-8.7149999999999999</v>
       </c>
       <c r="E109">
         <v>2.5329299999999998E-4</v>
@@ -2692,7 +2695,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D110">
-        <v>-6.5125000000000002</v>
+        <v>-8.7125000000000004</v>
       </c>
       <c r="E110">
         <v>2.5329299999999998E-4</v>
@@ -2706,7 +2709,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D111">
-        <v>-6.51</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="E111">
         <v>2.5329299999999998E-4</v>
@@ -2720,7 +2723,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D112">
-        <v>-6.5075000000000003</v>
+        <v>-8.7074999999999996</v>
       </c>
       <c r="E112">
         <v>2.5329299999999998E-4</v>
@@ -2734,7 +2737,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D113">
-        <v>-6.5049999999999999</v>
+        <v>-8.7050000000000001</v>
       </c>
       <c r="E113">
         <v>2.5329299999999998E-4</v>
@@ -2748,7 +2751,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D114">
-        <v>-6.5025000000000004</v>
+        <v>-8.7025000000000006</v>
       </c>
       <c r="E114">
         <v>2.5329299999999998E-4</v>
@@ -2762,7 +2765,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D115">
-        <v>-6.5</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="E115">
         <v>2.5329299999999998E-4</v>
@@ -2776,7 +2779,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D116">
-        <v>-6.4974999999999996</v>
+        <v>-8.6974999999999998</v>
       </c>
       <c r="E116">
         <v>2.5329299999999998E-4</v>
@@ -2790,7 +2793,7 @@
         <v>5.6927899999999997E-2</v>
       </c>
       <c r="D117">
-        <v>-6.4950000000000001</v>
+        <v>-8.6950000000000003</v>
       </c>
       <c r="E117">
         <v>2.5329299999999998E-4</v>
@@ -2804,7 +2807,7 @@
         <v>5.68643E-2</v>
       </c>
       <c r="D118">
-        <v>-6.4924999999999997</v>
+        <v>-8.6925000000000008</v>
       </c>
       <c r="E118">
         <v>2.5329299999999998E-4</v>
@@ -2818,7 +2821,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D119">
-        <v>-6.49</v>
+        <v>-8.69</v>
       </c>
       <c r="E119">
         <v>2.5329299999999998E-4</v>
@@ -2832,7 +2835,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D120">
-        <v>-6.4874999999999998</v>
+        <v>-8.6875</v>
       </c>
       <c r="E120">
         <v>2.5329299999999998E-4</v>
@@ -2846,7 +2849,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D121">
-        <v>-6.4850000000000003</v>
+        <v>-8.6850000000000005</v>
       </c>
       <c r="E121">
         <v>2.5329299999999998E-4</v>
@@ -2860,7 +2863,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D122">
-        <v>-6.4824999999999999</v>
+        <v>-8.6824999999999992</v>
       </c>
       <c r="E122">
         <v>2.5329299999999998E-4</v>
@@ -2874,7 +2877,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D123">
-        <v>-6.48</v>
+        <v>-8.68</v>
       </c>
       <c r="E123">
         <v>2.5329299999999998E-4</v>
@@ -2888,7 +2891,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D124">
-        <v>-6.4775</v>
+        <v>-8.6775000000000002</v>
       </c>
       <c r="E124">
         <v>2.5329299999999998E-4</v>
@@ -2902,7 +2905,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D125">
-        <v>-6.4749999999999996</v>
+        <v>-8.6750000000000007</v>
       </c>
       <c r="E125">
         <v>2.5329299999999998E-4</v>
@@ -2916,7 +2919,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D126">
-        <v>-6.4725000000000001</v>
+        <v>-8.6724999999999994</v>
       </c>
       <c r="E126">
         <v>2.5329299999999998E-4</v>
@@ -2930,7 +2933,7 @@
         <v>5.7213899999999998E-2</v>
       </c>
       <c r="D127">
-        <v>-6.47</v>
+        <v>-8.67</v>
       </c>
       <c r="E127">
         <v>2.5329299999999998E-4</v>
@@ -2944,7 +2947,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D128">
-        <v>-6.4675000000000002</v>
+        <v>-8.6675000000000004</v>
       </c>
       <c r="E128">
         <v>2.5329299999999998E-4</v>
@@ -2958,7 +2961,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D129">
-        <v>-6.4649999999999999</v>
+        <v>-8.6649999999999991</v>
       </c>
       <c r="E129">
         <v>2.5329299999999998E-4</v>
@@ -2972,10 +2975,10 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D130">
-        <v>-6.4625000000000004</v>
+        <v>-8.6624999999999996</v>
       </c>
       <c r="E130">
-        <v>2.8507899999999999E-4</v>
+        <v>2.5329299999999998E-4</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,7 +2989,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D131">
-        <v>-6.46</v>
+        <v>-8.66</v>
       </c>
       <c r="E131">
         <v>2.5329299999999998E-4</v>
@@ -3000,7 +3003,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D132">
-        <v>-6.4574999999999996</v>
+        <v>-8.6575000000000006</v>
       </c>
       <c r="E132">
         <v>2.5329299999999998E-4</v>
@@ -3014,7 +3017,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D133">
-        <v>-6.4550000000000001</v>
+        <v>-8.6549999999999994</v>
       </c>
       <c r="E133">
         <v>2.5329299999999998E-4</v>
@@ -3028,7 +3031,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D134">
-        <v>-6.4524999999999997</v>
+        <v>-8.6524999999999999</v>
       </c>
       <c r="E134">
         <v>2.5329299999999998E-4</v>
@@ -3042,7 +3045,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D135">
-        <v>-6.45</v>
+        <v>-8.65</v>
       </c>
       <c r="E135">
         <v>2.5329299999999998E-4</v>
@@ -3056,7 +3059,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D136">
-        <v>-6.4474999999999998</v>
+        <v>-8.6475000000000009</v>
       </c>
       <c r="E136">
         <v>2.5329299999999998E-4</v>
@@ -3070,7 +3073,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D137">
-        <v>-6.4450000000000003</v>
+        <v>-8.6449999999999996</v>
       </c>
       <c r="E137">
         <v>2.5329299999999998E-4</v>
@@ -3084,7 +3087,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D138">
-        <v>-6.4424999999999999</v>
+        <v>-8.6425000000000001</v>
       </c>
       <c r="E138">
         <v>2.5329299999999998E-4</v>
@@ -3098,7 +3101,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D139">
-        <v>-6.44</v>
+        <v>-8.64</v>
       </c>
       <c r="E139">
         <v>2.5329299999999998E-4</v>
@@ -3112,7 +3115,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D140">
-        <v>-6.4375</v>
+        <v>-8.6374999999999993</v>
       </c>
       <c r="E140">
         <v>2.5329299999999998E-4</v>
@@ -3126,7 +3129,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D141">
-        <v>-6.4349999999999996</v>
+        <v>-8.6349999999999998</v>
       </c>
       <c r="E141">
         <v>2.5329299999999998E-4</v>
@@ -3140,7 +3143,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D142">
-        <v>-6.4325000000000001</v>
+        <v>-8.6325000000000003</v>
       </c>
       <c r="E142">
         <v>2.5329299999999998E-4</v>
@@ -3154,7 +3157,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D143">
-        <v>-6.43</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="E143">
         <v>2.5329299999999998E-4</v>
@@ -3168,7 +3171,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D144">
-        <v>-6.4275000000000002</v>
+        <v>-8.6274999999999995</v>
       </c>
       <c r="E144">
         <v>2.5329299999999998E-4</v>
@@ -3182,7 +3185,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D145">
-        <v>-6.4249999999999998</v>
+        <v>-8.625</v>
       </c>
       <c r="E145">
         <v>2.5329299999999998E-4</v>
@@ -3196,7 +3199,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D146">
-        <v>-6.4225000000000003</v>
+        <v>-8.6225000000000005</v>
       </c>
       <c r="E146">
         <v>2.5329299999999998E-4</v>
@@ -3210,7 +3213,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D147">
-        <v>-6.42</v>
+        <v>-8.6199999999999992</v>
       </c>
       <c r="E147">
         <v>2.5329299999999998E-4</v>
@@ -3224,7 +3227,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D148">
-        <v>-6.4175000000000004</v>
+        <v>-8.6174999999999997</v>
       </c>
       <c r="E148">
         <v>2.5329299999999998E-4</v>
@@ -3238,7 +3241,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D149">
-        <v>-6.415</v>
+        <v>-8.6150000000000002</v>
       </c>
       <c r="E149">
         <v>2.5329299999999998E-4</v>
@@ -3252,7 +3255,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D150">
-        <v>-6.4124999999999996</v>
+        <v>-8.6125000000000007</v>
       </c>
       <c r="E150">
         <v>2.5329299999999998E-4</v>
@@ -3266,7 +3269,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D151">
-        <v>-6.41</v>
+        <v>-8.61</v>
       </c>
       <c r="E151">
         <v>2.5329299999999998E-4</v>
@@ -3280,7 +3283,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D152">
-        <v>-6.4074999999999998</v>
+        <v>-8.6074999999999999</v>
       </c>
       <c r="E152">
         <v>2.5329299999999998E-4</v>
@@ -3294,7 +3297,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D153">
-        <v>-6.4050000000000002</v>
+        <v>-8.6050000000000004</v>
       </c>
       <c r="E153">
         <v>2.5329299999999998E-4</v>
@@ -3308,7 +3311,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D154">
-        <v>-6.4024999999999999</v>
+        <v>-8.6024999999999991</v>
       </c>
       <c r="E154">
         <v>2.5329299999999998E-4</v>
@@ -3322,7 +3325,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D155">
-        <v>-6.4</v>
+        <v>-8.6</v>
       </c>
       <c r="E155">
         <v>2.5329299999999998E-4</v>
@@ -3336,7 +3339,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D156">
-        <v>-6.3975</v>
+        <v>-8.5975000000000001</v>
       </c>
       <c r="E156">
         <v>2.5329299999999998E-4</v>
@@ -3350,7 +3353,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D157">
-        <v>-6.3949999999999996</v>
+        <v>-8.5950000000000006</v>
       </c>
       <c r="E157">
         <v>2.5329299999999998E-4</v>
@@ -3364,7 +3367,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D158">
-        <v>-6.3925000000000001</v>
+        <v>-8.5924999999999994</v>
       </c>
       <c r="E158">
         <v>2.5329299999999998E-4</v>
@@ -3378,7 +3381,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D159">
-        <v>-6.39</v>
+        <v>-8.59</v>
       </c>
       <c r="E159">
         <v>2.5329299999999998E-4</v>
@@ -3392,7 +3395,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D160">
-        <v>-6.3875000000000002</v>
+        <v>-8.5875000000000004</v>
       </c>
       <c r="E160">
         <v>2.5329299999999998E-4</v>
@@ -3406,7 +3409,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D161">
-        <v>-6.3849999999999998</v>
+        <v>-8.5850000000000009</v>
       </c>
       <c r="E161">
         <v>2.5329299999999998E-4</v>
@@ -3420,7 +3423,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D162">
-        <v>-6.3825000000000003</v>
+        <v>-8.5824999999999996</v>
       </c>
       <c r="E162">
         <v>2.5329299999999998E-4</v>
@@ -3434,7 +3437,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D163">
-        <v>-6.38</v>
+        <v>-8.58</v>
       </c>
       <c r="E163">
         <v>2.5329299999999998E-4</v>
@@ -3448,7 +3451,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D164">
-        <v>-6.3775000000000004</v>
+        <v>-8.5775000000000006</v>
       </c>
       <c r="E164">
         <v>2.5329299999999998E-4</v>
@@ -3462,7 +3465,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D165">
-        <v>-6.375</v>
+        <v>-8.5749999999999993</v>
       </c>
       <c r="E165">
         <v>2.5329299999999998E-4</v>
@@ -3476,7 +3479,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D166">
-        <v>-6.3724999999999996</v>
+        <v>-8.5724999999999998</v>
       </c>
       <c r="E166">
         <v>2.5329299999999998E-4</v>
@@ -3490,7 +3493,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D167">
-        <v>-6.37</v>
+        <v>-8.57</v>
       </c>
       <c r="E167">
         <v>2.5329299999999998E-4</v>
@@ -3504,7 +3507,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D168">
-        <v>-6.3674999999999997</v>
+        <v>-8.5675000000000008</v>
       </c>
       <c r="E168">
         <v>2.5329299999999998E-4</v>
@@ -3518,7 +3521,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D169">
-        <v>-6.3650000000000002</v>
+        <v>-8.5649999999999995</v>
       </c>
       <c r="E169">
         <v>2.5329299999999998E-4</v>
@@ -3532,7 +3535,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D170">
-        <v>-6.3624999999999998</v>
+        <v>-8.5625</v>
       </c>
       <c r="E170">
         <v>2.5329299999999998E-4</v>
@@ -3546,7 +3549,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D171">
-        <v>-6.36</v>
+        <v>-8.56</v>
       </c>
       <c r="E171">
         <v>2.5329299999999998E-4</v>
@@ -3560,7 +3563,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D172">
-        <v>-6.3574999999999999</v>
+        <v>-8.5574999999999992</v>
       </c>
       <c r="E172">
         <v>2.5329299999999998E-4</v>
@@ -3574,7 +3577,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D173">
-        <v>-6.3550000000000004</v>
+        <v>-8.5549999999999997</v>
       </c>
       <c r="E173">
         <v>2.5329299999999998E-4</v>
@@ -3588,7 +3591,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D174">
-        <v>-6.3525</v>
+        <v>-8.5525000000000002</v>
       </c>
       <c r="E174">
         <v>2.5329299999999998E-4</v>
@@ -3602,7 +3605,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D175">
-        <v>-6.35</v>
+        <v>-8.5500000000000007</v>
       </c>
       <c r="E175">
         <v>2.5329299999999998E-4</v>
@@ -3616,7 +3619,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D176">
-        <v>-6.3475000000000001</v>
+        <v>-8.5474999999999994</v>
       </c>
       <c r="E176">
         <v>2.5329299999999998E-4</v>
@@ -3630,7 +3633,7 @@
         <v>5.7245699999999997E-2</v>
       </c>
       <c r="D177">
-        <v>-6.3449999999999998</v>
+        <v>-8.5449999999999999</v>
       </c>
       <c r="E177">
         <v>2.5329299999999998E-4</v>
@@ -3644,7 +3647,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D178">
-        <v>-6.3425000000000002</v>
+        <v>-8.5425000000000004</v>
       </c>
       <c r="E178">
         <v>2.5329299999999998E-4</v>
@@ -3658,7 +3661,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D179">
-        <v>-6.34</v>
+        <v>-8.5399999999999991</v>
       </c>
       <c r="E179">
         <v>2.5329299999999998E-4</v>
@@ -3672,7 +3675,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D180">
-        <v>-6.3375000000000004</v>
+        <v>-8.5374999999999996</v>
       </c>
       <c r="E180">
         <v>2.5329299999999998E-4</v>
@@ -3686,7 +3689,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D181">
-        <v>-6.335</v>
+        <v>-8.5350000000000001</v>
       </c>
       <c r="E181">
         <v>2.5329299999999998E-4</v>
@@ -3700,7 +3703,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D182">
-        <v>-6.3324999999999996</v>
+        <v>-8.5325000000000006</v>
       </c>
       <c r="E182">
         <v>2.5329299999999998E-4</v>
@@ -3714,7 +3717,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D183">
-        <v>-6.33</v>
+        <v>-8.5299999999999994</v>
       </c>
       <c r="E183">
         <v>2.5329299999999998E-4</v>
@@ -3728,7 +3731,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D184">
-        <v>-6.3274999999999997</v>
+        <v>-8.5274999999999999</v>
       </c>
       <c r="E184">
         <v>2.5329299999999998E-4</v>
@@ -3742,7 +3745,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D185">
-        <v>-6.3250000000000002</v>
+        <v>-8.5250000000000004</v>
       </c>
       <c r="E185">
         <v>2.5329299999999998E-4</v>
@@ -3756,7 +3759,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D186">
-        <v>-6.3224999999999998</v>
+        <v>-8.5225000000000009</v>
       </c>
       <c r="E186">
         <v>2.5329299999999998E-4</v>
@@ -3770,7 +3773,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D187">
-        <v>-6.32</v>
+        <v>-8.52</v>
       </c>
       <c r="E187">
         <v>2.5329299999999998E-4</v>
@@ -3784,7 +3787,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D188">
-        <v>-6.3174999999999999</v>
+        <v>-8.5175000000000001</v>
       </c>
       <c r="E188">
         <v>2.5329299999999998E-4</v>
@@ -3798,7 +3801,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D189">
-        <v>-6.3150000000000004</v>
+        <v>-8.5150000000000006</v>
       </c>
       <c r="E189">
         <v>2.5329299999999998E-4</v>
@@ -3812,7 +3815,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D190">
-        <v>-6.3125</v>
+        <v>-8.5124999999999993</v>
       </c>
       <c r="E190">
         <v>2.5329299999999998E-4</v>
@@ -3826,7 +3829,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D191">
-        <v>-6.31</v>
+        <v>-8.51</v>
       </c>
       <c r="E191">
         <v>2.5329299999999998E-4</v>
@@ -3840,7 +3843,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D192">
-        <v>-6.3075000000000001</v>
+        <v>-8.5075000000000003</v>
       </c>
       <c r="E192">
         <v>2.5329299999999998E-4</v>
@@ -3854,7 +3857,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D193">
-        <v>-6.3049999999999997</v>
+        <v>-8.5050000000000008</v>
       </c>
       <c r="E193">
         <v>2.5329299999999998E-4</v>
@@ -3868,7 +3871,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D194">
-        <v>-6.3025000000000002</v>
+        <v>-8.5024999999999995</v>
       </c>
       <c r="E194">
         <v>2.5329299999999998E-4</v>
@@ -3882,7 +3885,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D195">
-        <v>-6.3</v>
+        <v>-8.5</v>
       </c>
       <c r="E195">
         <v>2.5329299999999998E-4</v>
@@ -3896,7 +3899,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D196">
-        <v>-6.2975000000000003</v>
+        <v>-8.4975000000000005</v>
       </c>
       <c r="E196">
         <v>2.5329299999999998E-4</v>
@@ -3910,7 +3913,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D197">
-        <v>-6.2949999999999999</v>
+        <v>-8.4949999999999992</v>
       </c>
       <c r="E197">
         <v>2.5329299999999998E-4</v>
@@ -3924,7 +3927,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D198">
-        <v>-6.2925000000000004</v>
+        <v>-8.4924999999999997</v>
       </c>
       <c r="E198">
         <v>2.5329299999999998E-4</v>
@@ -3938,7 +3941,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D199">
-        <v>-6.29</v>
+        <v>-8.49</v>
       </c>
       <c r="E199">
         <v>2.5329299999999998E-4</v>
@@ -3952,7 +3955,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D200">
-        <v>-6.2874999999999996</v>
+        <v>-8.4875000000000007</v>
       </c>
       <c r="E200">
         <v>2.5329299999999998E-4</v>
@@ -3966,7 +3969,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D201">
-        <v>-6.2850000000000001</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="E201">
         <v>2.5329299999999998E-4</v>
@@ -3980,7 +3983,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D202">
-        <v>-6.2824999999999998</v>
+        <v>-8.4824999999999999</v>
       </c>
       <c r="E202">
         <v>2.5329299999999998E-4</v>
@@ -3994,7 +3997,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D203">
-        <v>-6.28</v>
+        <v>-8.48</v>
       </c>
       <c r="E203">
         <v>2.5329299999999998E-4</v>
@@ -4008,7 +4011,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D204">
-        <v>-6.2774999999999999</v>
+        <v>-8.4774999999999991</v>
       </c>
       <c r="E204">
         <v>2.5329299999999998E-4</v>
@@ -4022,7 +4025,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D205">
-        <v>-6.2750000000000004</v>
+        <v>-8.4749999999999996</v>
       </c>
       <c r="E205">
         <v>2.5329299999999998E-4</v>
@@ -4036,7 +4039,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D206">
-        <v>-6.2725</v>
+        <v>-8.4725000000000001</v>
       </c>
       <c r="E206">
         <v>2.5329299999999998E-4</v>
@@ -4050,7 +4053,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D207">
-        <v>-6.27</v>
+        <v>-8.4700000000000006</v>
       </c>
       <c r="E207">
         <v>2.5329299999999998E-4</v>
@@ -4064,7 +4067,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D208">
-        <v>-6.2675000000000001</v>
+        <v>-8.4674999999999994</v>
       </c>
       <c r="E208">
         <v>2.5329299999999998E-4</v>
@@ -4078,7 +4081,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D209">
-        <v>-6.2649999999999997</v>
+        <v>-8.4649999999999999</v>
       </c>
       <c r="E209">
         <v>2.5329299999999998E-4</v>
@@ -4092,7 +4095,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D210">
-        <v>-6.2625000000000002</v>
+        <v>-8.4625000000000004</v>
       </c>
       <c r="E210">
         <v>2.5329299999999998E-4</v>
@@ -4106,7 +4109,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D211">
-        <v>-6.26</v>
+        <v>-8.4600000000000009</v>
       </c>
       <c r="E211">
         <v>2.5329299999999998E-4</v>
@@ -4120,7 +4123,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D212">
-        <v>-6.2575000000000003</v>
+        <v>-8.4574999999999996</v>
       </c>
       <c r="E212">
         <v>2.5329299999999998E-4</v>
@@ -4134,7 +4137,7 @@
         <v>5.6927899999999997E-2</v>
       </c>
       <c r="D213">
-        <v>-6.2549999999999999</v>
+        <v>-8.4550000000000001</v>
       </c>
       <c r="E213">
         <v>2.5329299999999998E-4</v>
@@ -4148,7 +4151,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D214">
-        <v>-6.2525000000000004</v>
+        <v>-8.4525000000000006</v>
       </c>
       <c r="E214">
         <v>2.5329299999999998E-4</v>
@@ -4162,7 +4165,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D215">
-        <v>-6.25</v>
+        <v>-8.4499999999999993</v>
       </c>
       <c r="E215">
         <v>2.5329299999999998E-4</v>
@@ -4176,7 +4179,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D216">
-        <v>-6.2474999999999996</v>
+        <v>-8.4474999999999998</v>
       </c>
       <c r="E216">
         <v>2.5329299999999998E-4</v>
@@ -4190,7 +4193,7 @@
         <v>5.7245699999999997E-2</v>
       </c>
       <c r="D217">
-        <v>-6.2450000000000001</v>
+        <v>-8.4450000000000003</v>
       </c>
       <c r="E217">
         <v>2.5329299999999998E-4</v>
@@ -4204,7 +4207,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D218">
-        <v>-6.2424999999999997</v>
+        <v>-8.4425000000000008</v>
       </c>
       <c r="E218">
         <v>2.5329299999999998E-4</v>
@@ -4218,7 +4221,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D219">
-        <v>-6.24</v>
+        <v>-8.44</v>
       </c>
       <c r="E219">
         <v>2.5329299999999998E-4</v>
@@ -4232,7 +4235,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D220">
-        <v>-6.2374999999999998</v>
+        <v>-8.4375</v>
       </c>
       <c r="E220">
         <v>2.5329299999999998E-4</v>
@@ -4246,7 +4249,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D221">
-        <v>-6.2350000000000003</v>
+        <v>-8.4350000000000005</v>
       </c>
       <c r="E221">
         <v>2.5329299999999998E-4</v>
@@ -4260,7 +4263,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D222">
-        <v>-6.2324999999999999</v>
+        <v>-8.4324999999999992</v>
       </c>
       <c r="E222">
         <v>2.5329299999999998E-4</v>
@@ -4274,7 +4277,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D223">
-        <v>-6.23</v>
+        <v>-8.43</v>
       </c>
       <c r="E223">
         <v>2.5329299999999998E-4</v>
@@ -4288,7 +4291,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D224">
-        <v>-6.2275</v>
+        <v>-8.4275000000000002</v>
       </c>
       <c r="E224">
         <v>2.5329299999999998E-4</v>
@@ -4302,7 +4305,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D225">
-        <v>-6.2249999999999996</v>
+        <v>-8.4250000000000007</v>
       </c>
       <c r="E225">
         <v>2.5329299999999998E-4</v>
@@ -4316,7 +4319,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D226">
-        <v>-6.2225000000000001</v>
+        <v>-8.4224999999999994</v>
       </c>
       <c r="E226">
         <v>2.5329299999999998E-4</v>
@@ -4330,7 +4333,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D227">
-        <v>-6.22</v>
+        <v>-8.42</v>
       </c>
       <c r="E227">
         <v>2.5329299999999998E-4</v>
@@ -4344,7 +4347,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D228">
-        <v>-6.2175000000000002</v>
+        <v>-8.4175000000000004</v>
       </c>
       <c r="E228">
         <v>2.5329299999999998E-4</v>
@@ -4358,7 +4361,7 @@
         <v>5.6927899999999997E-2</v>
       </c>
       <c r="D229">
-        <v>-6.2149999999999999</v>
+        <v>-8.4149999999999991</v>
       </c>
       <c r="E229">
         <v>2.5329299999999998E-4</v>
@@ -4372,7 +4375,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D230">
-        <v>-6.2125000000000004</v>
+        <v>-8.4124999999999996</v>
       </c>
       <c r="E230">
         <v>2.5329299999999998E-4</v>
@@ -4386,7 +4389,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D231">
-        <v>-6.21</v>
+        <v>-8.41</v>
       </c>
       <c r="E231">
         <v>2.5329299999999998E-4</v>
@@ -4400,7 +4403,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D232">
-        <v>-6.2074999999999996</v>
+        <v>-8.4075000000000006</v>
       </c>
       <c r="E232">
         <v>2.5329299999999998E-4</v>
@@ -4414,7 +4417,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D233">
-        <v>-6.2050000000000001</v>
+        <v>-8.4049999999999994</v>
       </c>
       <c r="E233">
         <v>2.5329299999999998E-4</v>
@@ -4428,7 +4431,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D234">
-        <v>-6.2024999999999997</v>
+        <v>-8.4024999999999999</v>
       </c>
       <c r="E234">
         <v>2.5329299999999998E-4</v>
@@ -4442,7 +4445,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D235">
-        <v>-6.2</v>
+        <v>-8.4</v>
       </c>
       <c r="E235">
         <v>2.5329299999999998E-4</v>
@@ -4456,7 +4459,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D236">
-        <v>-6.1974999999999998</v>
+        <v>-8.3975000000000009</v>
       </c>
       <c r="E236">
         <v>2.5329299999999998E-4</v>
@@ -4470,7 +4473,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D237">
-        <v>-6.1950000000000003</v>
+        <v>-8.3949999999999996</v>
       </c>
       <c r="E237">
         <v>2.5329299999999998E-4</v>
@@ -4484,7 +4487,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D238">
-        <v>-6.1924999999999999</v>
+        <v>-8.3925000000000001</v>
       </c>
       <c r="E238">
         <v>2.5329299999999998E-4</v>
@@ -4498,7 +4501,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D239">
-        <v>-6.19</v>
+        <v>-8.39</v>
       </c>
       <c r="E239">
         <v>2.5329299999999998E-4</v>
@@ -4512,7 +4515,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D240">
-        <v>-6.1875</v>
+        <v>-8.3874999999999993</v>
       </c>
       <c r="E240">
         <v>2.5329299999999998E-4</v>
@@ -4526,7 +4529,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D241">
-        <v>-6.1849999999999996</v>
+        <v>-8.3849999999999998</v>
       </c>
       <c r="E241">
         <v>2.5329299999999998E-4</v>
@@ -4540,7 +4543,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D242">
-        <v>-6.1825000000000001</v>
+        <v>-8.3825000000000003</v>
       </c>
       <c r="E242">
         <v>2.5329299999999998E-4</v>
@@ -4554,7 +4557,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D243">
-        <v>-6.18</v>
+        <v>-8.3800000000000008</v>
       </c>
       <c r="E243">
         <v>2.5329299999999998E-4</v>
@@ -4568,7 +4571,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D244">
-        <v>-6.1775000000000002</v>
+        <v>-8.3774999999999995</v>
       </c>
       <c r="E244">
         <v>2.5329299999999998E-4</v>
@@ -4582,7 +4585,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D245">
-        <v>-6.1749999999999998</v>
+        <v>-8.375</v>
       </c>
       <c r="E245">
         <v>2.5329299999999998E-4</v>
@@ -4596,7 +4599,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D246">
-        <v>-6.1725000000000003</v>
+        <v>-8.3725000000000005</v>
       </c>
       <c r="E246">
         <v>2.5329299999999998E-4</v>
@@ -4610,7 +4613,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D247">
-        <v>-6.17</v>
+        <v>-8.3699999999999992</v>
       </c>
       <c r="E247">
         <v>2.5329299999999998E-4</v>
@@ -4624,7 +4627,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D248">
-        <v>-6.1675000000000004</v>
+        <v>-8.3674999999999997</v>
       </c>
       <c r="E248">
         <v>2.5329299999999998E-4</v>
@@ -4638,7 +4641,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D249">
-        <v>-6.165</v>
+        <v>-8.3650000000000002</v>
       </c>
       <c r="E249">
         <v>2.5329299999999998E-4</v>
@@ -4652,7 +4655,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D250">
-        <v>-6.1624999999999996</v>
+        <v>-8.3625000000000007</v>
       </c>
       <c r="E250">
         <v>2.5329299999999998E-4</v>
@@ -4666,7 +4669,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D251">
-        <v>-6.16</v>
+        <v>-8.36</v>
       </c>
       <c r="E251">
         <v>2.5329299999999998E-4</v>
@@ -4680,7 +4683,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D252">
-        <v>-6.1574999999999998</v>
+        <v>-8.3574999999999999</v>
       </c>
       <c r="E252">
         <v>2.5329299999999998E-4</v>
@@ -4694,7 +4697,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D253">
-        <v>-6.1550000000000002</v>
+        <v>-8.3550000000000004</v>
       </c>
       <c r="E253">
         <v>2.5329299999999998E-4</v>
@@ -4708,7 +4711,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D254">
-        <v>-6.1524999999999999</v>
+        <v>-8.3524999999999991</v>
       </c>
       <c r="E254">
         <v>2.5329299999999998E-4</v>
@@ -4722,7 +4725,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D255">
-        <v>-6.15</v>
+        <v>-8.35</v>
       </c>
       <c r="E255">
         <v>2.5329299999999998E-4</v>
@@ -4736,7 +4739,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D256">
-        <v>-6.1475</v>
+        <v>-8.3475000000000001</v>
       </c>
       <c r="E256">
         <v>2.5329299999999998E-4</v>
@@ -4750,7 +4753,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D257">
-        <v>-6.1449999999999996</v>
+        <v>-8.3450000000000006</v>
       </c>
       <c r="E257">
         <v>2.5329299999999998E-4</v>
@@ -4764,7 +4767,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D258">
-        <v>-6.1425000000000001</v>
+        <v>-8.3424999999999994</v>
       </c>
       <c r="E258">
         <v>2.5329299999999998E-4</v>
@@ -4778,7 +4781,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D259">
-        <v>-6.14</v>
+        <v>-8.34</v>
       </c>
       <c r="E259">
         <v>2.5329299999999998E-4</v>
@@ -4792,7 +4795,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D260">
-        <v>-6.1375000000000002</v>
+        <v>-8.3375000000000004</v>
       </c>
       <c r="E260">
         <v>2.5329299999999998E-4</v>
@@ -4806,7 +4809,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D261">
-        <v>-6.1349999999999998</v>
+        <v>-8.3350000000000009</v>
       </c>
       <c r="E261">
         <v>2.5329299999999998E-4</v>
@@ -4820,7 +4823,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D262">
-        <v>-6.1325000000000003</v>
+        <v>-8.3324999999999996</v>
       </c>
       <c r="E262">
         <v>2.5329299999999998E-4</v>
@@ -4834,7 +4837,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D263">
-        <v>-6.13</v>
+        <v>-8.33</v>
       </c>
       <c r="E263">
         <v>2.5329299999999998E-4</v>
@@ -4848,7 +4851,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D264">
-        <v>-6.1275000000000004</v>
+        <v>-8.3275000000000006</v>
       </c>
       <c r="E264">
         <v>2.5329299999999998E-4</v>
@@ -4862,7 +4865,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D265">
-        <v>-6.125</v>
+        <v>-8.3249999999999993</v>
       </c>
       <c r="E265">
         <v>2.5329299999999998E-4</v>
@@ -4876,7 +4879,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D266">
-        <v>-6.1224999999999996</v>
+        <v>-8.3224999999999998</v>
       </c>
       <c r="E266">
         <v>2.5329299999999998E-4</v>
@@ -4890,7 +4893,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D267">
-        <v>-6.12</v>
+        <v>-8.32</v>
       </c>
       <c r="E267">
         <v>2.5329299999999998E-4</v>
@@ -4904,7 +4907,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D268">
-        <v>-6.1174999999999997</v>
+        <v>-8.3175000000000008</v>
       </c>
       <c r="E268">
         <v>2.5329299999999998E-4</v>
@@ -4918,7 +4921,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D269">
-        <v>-6.1150000000000002</v>
+        <v>-8.3149999999999995</v>
       </c>
       <c r="E269">
         <v>2.5329299999999998E-4</v>
@@ -4932,7 +4935,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D270">
-        <v>-6.1124999999999998</v>
+        <v>-8.3125</v>
       </c>
       <c r="E270">
         <v>2.5329299999999998E-4</v>
@@ -4946,7 +4949,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D271">
-        <v>-6.11</v>
+        <v>-8.31</v>
       </c>
       <c r="E271">
         <v>2.5329299999999998E-4</v>
@@ -4960,7 +4963,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D272">
-        <v>-6.1074999999999999</v>
+        <v>-8.3074999999999992</v>
       </c>
       <c r="E272">
         <v>2.5329299999999998E-4</v>
@@ -4974,7 +4977,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D273">
-        <v>-6.1050000000000004</v>
+        <v>-8.3049999999999997</v>
       </c>
       <c r="E273">
         <v>2.5329299999999998E-4</v>
@@ -4988,7 +4991,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D274">
-        <v>-6.1025</v>
+        <v>-8.3025000000000002</v>
       </c>
       <c r="E274">
         <v>2.5329299999999998E-4</v>
@@ -5002,7 +5005,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D275">
-        <v>-6.1</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E275">
         <v>2.5329299999999998E-4</v>
@@ -5016,7 +5019,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D276">
-        <v>-6.0975000000000001</v>
+        <v>-8.2974999999999994</v>
       </c>
       <c r="E276">
         <v>2.5329299999999998E-4</v>
@@ -5030,7 +5033,7 @@
         <v>5.6927899999999997E-2</v>
       </c>
       <c r="D277">
-        <v>-6.0949999999999998</v>
+        <v>-8.2949999999999999</v>
       </c>
       <c r="E277">
         <v>2.5329299999999998E-4</v>
@@ -5044,7 +5047,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D278">
-        <v>-6.0925000000000002</v>
+        <v>-8.2925000000000004</v>
       </c>
       <c r="E278">
         <v>2.5329299999999998E-4</v>
@@ -5058,7 +5061,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D279">
-        <v>-6.09</v>
+        <v>-8.2899999999999991</v>
       </c>
       <c r="E279">
         <v>2.5329299999999998E-4</v>
@@ -5072,7 +5075,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D280">
-        <v>-6.0875000000000004</v>
+        <v>-8.2874999999999996</v>
       </c>
       <c r="E280">
         <v>2.5329299999999998E-4</v>
@@ -5086,7 +5089,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D281">
-        <v>-6.085</v>
+        <v>-8.2850000000000001</v>
       </c>
       <c r="E281">
         <v>2.5329299999999998E-4</v>
@@ -5100,7 +5103,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D282">
-        <v>-6.0824999999999996</v>
+        <v>-8.2825000000000006</v>
       </c>
       <c r="E282">
         <v>2.5329299999999998E-4</v>
@@ -5114,7 +5117,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D283">
-        <v>-6.08</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="E283">
         <v>2.5329299999999998E-4</v>
@@ -5128,7 +5131,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D284">
-        <v>-6.0774999999999997</v>
+        <v>-8.2774999999999999</v>
       </c>
       <c r="E284">
         <v>2.5329299999999998E-4</v>
@@ -5142,7 +5145,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D285">
-        <v>-6.0750000000000002</v>
+        <v>-8.2750000000000004</v>
       </c>
       <c r="E285">
         <v>2.5329299999999998E-4</v>
@@ -5156,7 +5159,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D286">
-        <v>-6.0724999999999998</v>
+        <v>-8.2725000000000009</v>
       </c>
       <c r="E286">
         <v>2.5329299999999998E-4</v>
@@ -5170,7 +5173,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D287">
-        <v>-6.07</v>
+        <v>-8.27</v>
       </c>
       <c r="E287">
         <v>2.5329299999999998E-4</v>
@@ -5184,7 +5187,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D288">
-        <v>-6.0674999999999999</v>
+        <v>-8.2675000000000001</v>
       </c>
       <c r="E288">
         <v>2.5329299999999998E-4</v>
@@ -5198,7 +5201,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D289">
-        <v>-6.0650000000000004</v>
+        <v>-8.2650000000000006</v>
       </c>
       <c r="E289">
         <v>2.5329299999999998E-4</v>
@@ -5212,7 +5215,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D290">
-        <v>-6.0625</v>
+        <v>-8.2624999999999993</v>
       </c>
       <c r="E290">
         <v>2.5329299999999998E-4</v>
@@ -5226,7 +5229,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D291">
-        <v>-6.06</v>
+        <v>-8.26</v>
       </c>
       <c r="E291">
         <v>2.5329299999999998E-4</v>
@@ -5240,7 +5243,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D292">
-        <v>-6.0575000000000001</v>
+        <v>-8.2575000000000003</v>
       </c>
       <c r="E292">
         <v>2.5329299999999998E-4</v>
@@ -5254,7 +5257,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D293">
-        <v>-6.0549999999999997</v>
+        <v>-8.2550000000000008</v>
       </c>
       <c r="E293">
         <v>2.5329299999999998E-4</v>
@@ -5268,7 +5271,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D294">
-        <v>-6.0525000000000002</v>
+        <v>-8.2524999999999995</v>
       </c>
       <c r="E294">
         <v>2.5329299999999998E-4</v>
@@ -5282,7 +5285,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D295">
-        <v>-6.05</v>
+        <v>-8.25</v>
       </c>
       <c r="E295">
         <v>2.5329299999999998E-4</v>
@@ -5296,7 +5299,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D296">
-        <v>-6.0475000000000003</v>
+        <v>-8.2475000000000005</v>
       </c>
       <c r="E296">
         <v>2.5329299999999998E-4</v>
@@ -5310,7 +5313,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D297">
-        <v>-6.0449999999999999</v>
+        <v>-8.2449999999999992</v>
       </c>
       <c r="E297">
         <v>2.5329299999999998E-4</v>
@@ -5324,7 +5327,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D298">
-        <v>-6.0425000000000004</v>
+        <v>-8.2424999999999997</v>
       </c>
       <c r="E298">
         <v>2.5329299999999998E-4</v>
@@ -5338,7 +5341,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D299">
-        <v>-6.04</v>
+        <v>-8.24</v>
       </c>
       <c r="E299">
         <v>2.5329299999999998E-4</v>
@@ -5352,7 +5355,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D300">
-        <v>-6.0374999999999996</v>
+        <v>-8.2375000000000007</v>
       </c>
       <c r="E300">
         <v>2.5329299999999998E-4</v>
@@ -5366,7 +5369,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D301">
-        <v>-6.0350000000000001</v>
+        <v>-8.2349999999999994</v>
       </c>
       <c r="E301">
         <v>2.5329299999999998E-4</v>
@@ -5380,7 +5383,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D302">
-        <v>-6.0324999999999998</v>
+        <v>-8.2324999999999999</v>
       </c>
       <c r="E302">
         <v>2.5329299999999998E-4</v>
@@ -5394,7 +5397,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D303">
-        <v>-6.03</v>
+        <v>-8.23</v>
       </c>
       <c r="E303">
         <v>2.5329299999999998E-4</v>
@@ -5408,7 +5411,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D304">
-        <v>-6.0274999999999999</v>
+        <v>-8.2274999999999991</v>
       </c>
       <c r="E304">
         <v>2.5329299999999998E-4</v>
@@ -5422,7 +5425,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D305">
-        <v>-6.0250000000000004</v>
+        <v>-8.2249999999999996</v>
       </c>
       <c r="E305">
         <v>2.5329299999999998E-4</v>
@@ -5436,7 +5439,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D306">
-        <v>-6.0225</v>
+        <v>-8.2225000000000001</v>
       </c>
       <c r="E306">
         <v>2.5329299999999998E-4</v>
@@ -5450,7 +5453,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D307">
-        <v>-6.02</v>
+        <v>-8.2200000000000006</v>
       </c>
       <c r="E307">
         <v>2.5329299999999998E-4</v>
@@ -5464,7 +5467,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D308">
-        <v>-6.0175000000000001</v>
+        <v>-8.2174999999999994</v>
       </c>
       <c r="E308">
         <v>2.5329299999999998E-4</v>
@@ -5478,7 +5481,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D309">
-        <v>-6.0149999999999997</v>
+        <v>-8.2149999999999999</v>
       </c>
       <c r="E309">
         <v>2.5329299999999998E-4</v>
@@ -5492,7 +5495,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D310">
-        <v>-6.0125000000000002</v>
+        <v>-8.2125000000000004</v>
       </c>
       <c r="E310">
         <v>2.5329299999999998E-4</v>
@@ -5506,7 +5509,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D311">
-        <v>-6.01</v>
+        <v>-8.2100000000000009</v>
       </c>
       <c r="E311">
         <v>2.5329299999999998E-4</v>
@@ -5520,7 +5523,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D312">
-        <v>-6.0075000000000003</v>
+        <v>-8.2074999999999996</v>
       </c>
       <c r="E312">
         <v>2.5329299999999998E-4</v>
@@ -5534,7 +5537,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D313">
-        <v>-6.0049999999999999</v>
+        <v>-8.2050000000000001</v>
       </c>
       <c r="E313">
         <v>2.5329299999999998E-4</v>
@@ -5548,7 +5551,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D314">
-        <v>-6.0025000000000004</v>
+        <v>-8.2025000000000006</v>
       </c>
       <c r="E314">
         <v>2.5329299999999998E-4</v>
@@ -5562,7 +5565,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D315">
-        <v>-6</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="E315">
         <v>2.5329299999999998E-4</v>
@@ -5576,7 +5579,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D316">
-        <v>-5.9974999999999996</v>
+        <v>-8.1974999999999998</v>
       </c>
       <c r="E316">
         <v>2.5329299999999998E-4</v>
@@ -5590,7 +5593,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D317">
-        <v>-5.9950000000000001</v>
+        <v>-8.1950000000000003</v>
       </c>
       <c r="E317">
         <v>2.5329299999999998E-4</v>
@@ -5604,7 +5607,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D318">
-        <v>-5.9924999999999997</v>
+        <v>-8.1925000000000008</v>
       </c>
       <c r="E318">
         <v>2.5329299999999998E-4</v>
@@ -5618,7 +5621,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D319">
-        <v>-5.99</v>
+        <v>-8.19</v>
       </c>
       <c r="E319">
         <v>2.5329299999999998E-4</v>
@@ -5632,7 +5635,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D320">
-        <v>-5.9874999999999998</v>
+        <v>-8.1875</v>
       </c>
       <c r="E320">
         <v>2.5329299999999998E-4</v>
@@ -5646,7 +5649,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D321">
-        <v>-5.9850000000000003</v>
+        <v>-8.1850000000000005</v>
       </c>
       <c r="E321">
         <v>2.5329299999999998E-4</v>
@@ -5660,7 +5663,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D322">
-        <v>-5.9824999999999999</v>
+        <v>-8.1824999999999992</v>
       </c>
       <c r="E322">
         <v>2.5329299999999998E-4</v>
@@ -5674,7 +5677,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D323">
-        <v>-5.98</v>
+        <v>-8.18</v>
       </c>
       <c r="E323">
         <v>2.5329299999999998E-4</v>
@@ -5688,7 +5691,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D324">
-        <v>-5.9775</v>
+        <v>-8.1775000000000002</v>
       </c>
       <c r="E324">
         <v>2.5329299999999998E-4</v>
@@ -5702,7 +5705,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D325">
-        <v>-5.9749999999999996</v>
+        <v>-8.1750000000000007</v>
       </c>
       <c r="E325">
         <v>2.5329299999999998E-4</v>
@@ -5716,7 +5719,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D326">
-        <v>-5.9725000000000001</v>
+        <v>-8.1724999999999994</v>
       </c>
       <c r="E326">
         <v>2.5329299999999998E-4</v>
@@ -5730,7 +5733,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D327">
-        <v>-5.97</v>
+        <v>-8.17</v>
       </c>
       <c r="E327">
         <v>2.5329299999999998E-4</v>
@@ -5744,7 +5747,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D328">
-        <v>-5.9675000000000002</v>
+        <v>-8.1675000000000004</v>
       </c>
       <c r="E328">
         <v>2.5329299999999998E-4</v>
@@ -5758,7 +5761,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D329">
-        <v>-5.9649999999999999</v>
+        <v>-8.1649999999999991</v>
       </c>
       <c r="E329">
         <v>2.5329299999999998E-4</v>
@@ -5772,7 +5775,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D330">
-        <v>-5.9625000000000004</v>
+        <v>-8.1624999999999996</v>
       </c>
       <c r="E330">
         <v>2.5329299999999998E-4</v>
@@ -5786,7 +5789,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D331">
-        <v>-5.96</v>
+        <v>-8.16</v>
       </c>
       <c r="E331">
         <v>2.5329299999999998E-4</v>
@@ -5800,7 +5803,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D332">
-        <v>-5.9574999999999996</v>
+        <v>-8.1575000000000006</v>
       </c>
       <c r="E332">
         <v>2.5329299999999998E-4</v>
@@ -5814,7 +5817,7 @@
         <v>5.68643E-2</v>
       </c>
       <c r="D333">
-        <v>-5.9550000000000001</v>
+        <v>-8.1549999999999994</v>
       </c>
       <c r="E333">
         <v>2.5329299999999998E-4</v>
@@ -5828,7 +5831,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D334">
-        <v>-5.9524999999999997</v>
+        <v>-8.1524999999999999</v>
       </c>
       <c r="E334">
         <v>2.5329299999999998E-4</v>
@@ -5842,7 +5845,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D335">
-        <v>-5.95</v>
+        <v>-8.15</v>
       </c>
       <c r="E335">
         <v>2.5329299999999998E-4</v>
@@ -5856,7 +5859,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D336">
-        <v>-5.9474999999999998</v>
+        <v>-8.1475000000000009</v>
       </c>
       <c r="E336">
         <v>2.5329299999999998E-4</v>
@@ -5870,7 +5873,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D337">
-        <v>-5.9450000000000003</v>
+        <v>-8.1449999999999996</v>
       </c>
       <c r="E337">
         <v>2.5329299999999998E-4</v>
@@ -5884,7 +5887,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D338">
-        <v>-5.9424999999999999</v>
+        <v>-8.1425000000000001</v>
       </c>
       <c r="E338">
         <v>2.5329299999999998E-4</v>
@@ -5898,7 +5901,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D339">
-        <v>-5.94</v>
+        <v>-8.14</v>
       </c>
       <c r="E339">
         <v>2.5329299999999998E-4</v>
@@ -5912,7 +5915,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D340">
-        <v>-5.9375</v>
+        <v>-8.1374999999999993</v>
       </c>
       <c r="E340">
         <v>2.5329299999999998E-4</v>
@@ -5926,7 +5929,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D341">
-        <v>-5.9349999999999996</v>
+        <v>-8.1349999999999998</v>
       </c>
       <c r="E341">
         <v>2.5329299999999998E-4</v>
@@ -5940,7 +5943,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D342">
-        <v>-5.9325000000000001</v>
+        <v>-8.1325000000000003</v>
       </c>
       <c r="E342">
         <v>2.5329299999999998E-4</v>
@@ -5954,7 +5957,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D343">
-        <v>-5.93</v>
+        <v>-8.1300000000000008</v>
       </c>
       <c r="E343">
         <v>2.5329299999999998E-4</v>
@@ -5968,7 +5971,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D344">
-        <v>-5.9275000000000002</v>
+        <v>-8.1274999999999995</v>
       </c>
       <c r="E344">
         <v>2.5329299999999998E-4</v>
@@ -5982,7 +5985,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D345">
-        <v>-5.9249999999999998</v>
+        <v>-8.125</v>
       </c>
       <c r="E345">
         <v>2.5329299999999998E-4</v>
@@ -5996,7 +5999,7 @@
         <v>5.6991399999999998E-2</v>
       </c>
       <c r="D346">
-        <v>-5.9225000000000003</v>
+        <v>-8.1225000000000005</v>
       </c>
       <c r="E346">
         <v>2.5329299999999998E-4</v>
@@ -6010,7 +6013,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D347">
-        <v>-5.92</v>
+        <v>-8.1199999999999992</v>
       </c>
       <c r="E347">
         <v>2.5329299999999998E-4</v>
@@ -6024,7 +6027,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D348">
-        <v>-5.9175000000000004</v>
+        <v>-8.1174999999999997</v>
       </c>
       <c r="E348">
         <v>2.5329299999999998E-4</v>
@@ -6038,7 +6041,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D349">
-        <v>-5.915</v>
+        <v>-8.1150000000000002</v>
       </c>
       <c r="E349">
         <v>2.5329299999999998E-4</v>
@@ -6052,7 +6055,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D350">
-        <v>-5.9124999999999996</v>
+        <v>-8.1125000000000007</v>
       </c>
       <c r="E350">
         <v>2.5329299999999998E-4</v>
@@ -6066,7 +6069,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D351">
-        <v>-5.91</v>
+        <v>-8.11</v>
       </c>
       <c r="E351">
         <v>2.5329299999999998E-4</v>
@@ -6080,7 +6083,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D352">
-        <v>-5.9074999999999998</v>
+        <v>-8.1074999999999999</v>
       </c>
       <c r="E352">
         <v>2.5329299999999998E-4</v>
@@ -6094,7 +6097,7 @@
         <v>5.7277500000000002E-2</v>
       </c>
       <c r="D353">
-        <v>-5.9050000000000002</v>
+        <v>-8.1050000000000004</v>
       </c>
       <c r="E353">
         <v>2.5329299999999998E-4</v>
@@ -6108,7 +6111,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D354">
-        <v>-5.9024999999999999</v>
+        <v>-8.1024999999999991</v>
       </c>
       <c r="E354">
         <v>2.5329299999999998E-4</v>
@@ -6122,7 +6125,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D355">
-        <v>-5.9</v>
+        <v>-8.1</v>
       </c>
       <c r="E355">
         <v>2.5329299999999998E-4</v>
@@ -6136,7 +6139,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D356">
-        <v>-5.8975</v>
+        <v>-8.0975000000000001</v>
       </c>
       <c r="E356">
         <v>2.5329299999999998E-4</v>
@@ -6150,7 +6153,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D357">
-        <v>-5.8949999999999996</v>
+        <v>-8.0950000000000006</v>
       </c>
       <c r="E357">
         <v>2.5329299999999998E-4</v>
@@ -6164,7 +6167,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D358">
-        <v>-5.8925000000000001</v>
+        <v>-8.0924999999999994</v>
       </c>
       <c r="E358">
         <v>2.5329299999999998E-4</v>
@@ -6178,7 +6181,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D359">
-        <v>-5.89</v>
+        <v>-8.09</v>
       </c>
       <c r="E359">
         <v>2.5329299999999998E-4</v>
@@ -6192,7 +6195,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D360">
-        <v>-5.8875000000000002</v>
+        <v>-8.0875000000000004</v>
       </c>
       <c r="E360">
         <v>2.5329299999999998E-4</v>
@@ -6206,7 +6209,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D361">
-        <v>-5.8849999999999998</v>
+        <v>-8.0850000000000009</v>
       </c>
       <c r="E361">
         <v>2.5329299999999998E-4</v>
@@ -6220,7 +6223,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D362">
-        <v>-5.8825000000000003</v>
+        <v>-8.0824999999999996</v>
       </c>
       <c r="E362">
         <v>2.5329299999999998E-4</v>
@@ -6234,7 +6237,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D363">
-        <v>-5.88</v>
+        <v>-8.08</v>
       </c>
       <c r="E363">
         <v>2.5329299999999998E-4</v>
@@ -6248,7 +6251,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D364">
-        <v>-5.8775000000000004</v>
+        <v>-8.0775000000000006</v>
       </c>
       <c r="E364">
         <v>2.5329299999999998E-4</v>
@@ -6262,7 +6265,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D365">
-        <v>-5.875</v>
+        <v>-8.0749999999999993</v>
       </c>
       <c r="E365">
         <v>2.5329299999999998E-4</v>
@@ -6276,7 +6279,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D366">
-        <v>-5.8724999999999996</v>
+        <v>-8.0724999999999998</v>
       </c>
       <c r="E366">
         <v>2.5329299999999998E-4</v>
@@ -6290,7 +6293,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D367">
-        <v>-5.87</v>
+        <v>-8.07</v>
       </c>
       <c r="E367">
         <v>2.5329299999999998E-4</v>
@@ -6304,7 +6307,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D368">
-        <v>-5.8674999999999997</v>
+        <v>-8.0675000000000008</v>
       </c>
       <c r="E368">
         <v>2.5329299999999998E-4</v>
@@ -6318,7 +6321,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D369">
-        <v>-5.8650000000000002</v>
+        <v>-8.0649999999999995</v>
       </c>
       <c r="E369">
         <v>2.5329299999999998E-4</v>
@@ -6332,7 +6335,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D370">
-        <v>-5.8624999999999998</v>
+        <v>-8.0625</v>
       </c>
       <c r="E370">
         <v>2.5329299999999998E-4</v>
@@ -6346,7 +6349,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D371">
-        <v>-5.86</v>
+        <v>-8.06</v>
       </c>
       <c r="E371">
         <v>2.5329299999999998E-4</v>
@@ -6360,7 +6363,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D372">
-        <v>-5.8574999999999999</v>
+        <v>-8.0574999999999992</v>
       </c>
       <c r="E372">
         <v>2.5329299999999998E-4</v>
@@ -6374,7 +6377,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D373">
-        <v>-5.8550000000000004</v>
+        <v>-8.0549999999999997</v>
       </c>
       <c r="E373">
         <v>2.5329299999999998E-4</v>
@@ -6388,7 +6391,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D374">
-        <v>-5.8525</v>
+        <v>-8.0525000000000002</v>
       </c>
       <c r="E374">
         <v>2.5329299999999998E-4</v>
@@ -6402,7 +6405,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D375">
-        <v>-5.85</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E375">
         <v>2.5329299999999998E-4</v>
@@ -6416,7 +6419,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D376">
-        <v>-5.8475000000000001</v>
+        <v>-8.0474999999999994</v>
       </c>
       <c r="E376">
         <v>2.5329299999999998E-4</v>
@@ -6430,7 +6433,7 @@
         <v>5.7341099999999999E-2</v>
       </c>
       <c r="D377">
-        <v>-5.8449999999999998</v>
+        <v>-8.0449999999999999</v>
       </c>
       <c r="E377">
         <v>2.5329299999999998E-4</v>
@@ -6444,7 +6447,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D378">
-        <v>-5.8425000000000002</v>
+        <v>-8.0425000000000004</v>
       </c>
       <c r="E378">
         <v>2.5329299999999998E-4</v>
@@ -6458,7 +6461,7 @@
         <v>5.7118599999999999E-2</v>
       </c>
       <c r="D379">
-        <v>-5.84</v>
+        <v>-8.0399999999999991</v>
       </c>
       <c r="E379">
         <v>2.5329299999999998E-4</v>
@@ -6472,7 +6475,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D380">
-        <v>-5.8375000000000004</v>
+        <v>-8.0374999999999996</v>
       </c>
       <c r="E380">
         <v>2.5329299999999998E-4</v>
@@ -6486,7 +6489,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D381">
-        <v>-5.835</v>
+        <v>-8.0350000000000001</v>
       </c>
       <c r="E381">
         <v>2.5329299999999998E-4</v>
@@ -6500,7 +6503,7 @@
         <v>5.6800700000000003E-2</v>
       </c>
       <c r="D382">
-        <v>-5.8324999999999996</v>
+        <v>-8.0325000000000006</v>
       </c>
       <c r="E382">
         <v>2.5329299999999998E-4</v>
@@ -6514,7 +6517,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D383">
-        <v>-5.83</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E383">
         <v>2.5329299999999998E-4</v>
@@ -6528,7 +6531,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D384">
-        <v>-5.8274999999999997</v>
+        <v>-8.0274999999999999</v>
       </c>
       <c r="E384">
         <v>2.5329299999999998E-4</v>
@@ -6542,7 +6545,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D385">
-        <v>-5.8250000000000002</v>
+        <v>-8.0250000000000004</v>
       </c>
       <c r="E385">
         <v>2.5329299999999998E-4</v>
@@ -6556,7 +6559,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D386">
-        <v>-5.8224999999999998</v>
+        <v>-8.0225000000000009</v>
       </c>
       <c r="E386">
         <v>2.5329299999999998E-4</v>
@@ -6570,7 +6573,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D387">
-        <v>-5.82</v>
+        <v>-8.02</v>
       </c>
       <c r="E387">
         <v>2.5329299999999998E-4</v>
@@ -6584,7 +6587,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D388">
-        <v>-5.8174999999999999</v>
+        <v>-8.0175000000000001</v>
       </c>
       <c r="E388">
         <v>2.5329299999999998E-4</v>
@@ -6598,7 +6601,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D389">
-        <v>-5.8150000000000004</v>
+        <v>-8.0150000000000006</v>
       </c>
       <c r="E389">
         <v>2.5329299999999998E-4</v>
@@ -6612,7 +6615,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D390">
-        <v>-5.8125</v>
+        <v>-8.0124999999999993</v>
       </c>
       <c r="E390">
         <v>2.5329299999999998E-4</v>
@@ -6626,7 +6629,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D391">
-        <v>-5.81</v>
+        <v>-8.01</v>
       </c>
       <c r="E391">
         <v>2.5329299999999998E-4</v>
@@ -6640,7 +6643,7 @@
         <v>5.70868E-2</v>
       </c>
       <c r="D392">
-        <v>-5.8075000000000001</v>
+        <v>-8.0075000000000003</v>
       </c>
       <c r="E392">
         <v>2.5329299999999998E-4</v>
@@ -6654,7 +6657,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D393">
-        <v>-5.8049999999999997</v>
+        <v>-8.0050000000000008</v>
       </c>
       <c r="E393">
         <v>2.5329299999999998E-4</v>
@@ -6668,7 +6671,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D394">
-        <v>-5.8025000000000002</v>
+        <v>-8.0024999999999995</v>
       </c>
       <c r="E394">
         <v>2.5329299999999998E-4</v>
@@ -6682,7 +6685,7 @@
         <v>5.71821E-2</v>
       </c>
       <c r="D395">
-        <v>-5.8</v>
+        <v>-8</v>
       </c>
       <c r="E395">
         <v>2.5329299999999998E-4</v>
@@ -6696,7 +6699,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D396">
-        <v>-5.7975000000000003</v>
+        <v>-7.9974999999999996</v>
       </c>
       <c r="E396">
         <v>2.5329299999999998E-4</v>
@@ -6710,7 +6713,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D397">
-        <v>-5.7949999999999999</v>
+        <v>-7.9950000000000001</v>
       </c>
       <c r="E397">
         <v>2.5329299999999998E-4</v>
@@ -6724,7 +6727,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D398">
-        <v>-5.7925000000000004</v>
+        <v>-7.9924999999999997</v>
       </c>
       <c r="E398">
         <v>2.5329299999999998E-4</v>
@@ -6738,7 +6741,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D399">
-        <v>-5.79</v>
+        <v>-7.99</v>
       </c>
       <c r="E399">
         <v>2.5329299999999998E-4</v>
@@ -6752,7 +6755,7 @@
         <v>5.7055000000000002E-2</v>
       </c>
       <c r="D400">
-        <v>-5.7874999999999996</v>
+        <v>-7.9874999999999998</v>
       </c>
       <c r="E400">
         <v>2.5329299999999998E-4</v>
@@ -6766,7 +6769,7 @@
         <v>5.7309300000000001E-2</v>
       </c>
       <c r="D401">
-        <v>-5.7850000000000001</v>
+        <v>-7.9850000000000003</v>
       </c>
       <c r="E401">
         <v>2.5329299999999998E-4</v>
@@ -6780,7 +6783,7 @@
         <v>5.7023200000000003E-2</v>
       </c>
       <c r="D402">
-        <v>-5.7824999999999998</v>
+        <v>-7.9824999999999999</v>
       </c>
       <c r="E402">
         <v>2.5329299999999998E-4</v>
@@ -6794,7 +6797,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D403">
-        <v>-5.78</v>
+        <v>-7.98</v>
       </c>
       <c r="E403">
         <v>2.5329299999999998E-4</v>
@@ -6808,7 +6811,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D404">
-        <v>-5.7774999999999999</v>
+        <v>-7.9775</v>
       </c>
       <c r="E404">
         <v>2.5329299999999998E-4</v>
@@ -6822,7 +6825,7 @@
         <v>5.6896099999999998E-2</v>
       </c>
       <c r="D405">
-        <v>-5.7750000000000004</v>
+        <v>-7.9749999999999996</v>
       </c>
       <c r="E405">
         <v>2.5329299999999998E-4</v>
@@ -6836,7 +6839,7 @@
         <v>5.6832500000000001E-2</v>
       </c>
       <c r="D406">
-        <v>-5.7725</v>
+        <v>-7.9725000000000001</v>
       </c>
       <c r="E406">
         <v>2.5329299999999998E-4</v>
@@ -6850,7 +6853,7 @@
         <v>5.7150399999999997E-2</v>
       </c>
       <c r="D407">
-        <v>-5.77</v>
+        <v>-7.97</v>
       </c>
       <c r="E407">
         <v>2.5329299999999998E-4</v>
@@ -6884,32 +6887,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6917,16 +6920,16 @@
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="21">
         <v>240</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="24">
         <v>45</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F6" si="0">E4/D4*1000</f>
         <v>187.5</v>
       </c>
@@ -6935,16 +6938,16 @@
       <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="21">
         <v>240</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="24">
         <v>560</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="23">
         <f t="shared" si="0"/>
         <v>2333.3333333333335</v>
       </c>
@@ -6953,16 +6956,16 @@
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="21">
         <v>240</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="22">
         <v>257</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>1070.8333333333333</v>
       </c>
@@ -6980,7 +6983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384769D-AB4F-4BE1-B26A-15ED3A0BBAB2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -7032,21 +7035,21 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="17" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
@@ -7546,7 +7549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A851E2-6059-4EBB-B09A-8B0C3576633C}">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -7594,21 +7597,21 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="17" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
@@ -9548,8 +9551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26D2FC4-FCBF-4567-B8D1-6CD68584EE39}">
   <dimension ref="A2:O232"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9591,21 +9594,21 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="17" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
@@ -11540,7 +11543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C320250A-50C6-4196-B533-B8E6EDBC8E7E}">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -11592,21 +11595,21 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="17" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
